--- a/productes.xlsx
+++ b/productes.xlsx
@@ -436,12 +436,12 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>id_articulo</t>
+          <t>id</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>rererence</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
